--- a/TurniConfig.xlsx
+++ b/TurniConfig.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Parametri" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Verifica" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">PARAMETRO</t>
   </si>
@@ -41,6 +42,99 @@
   </si>
   <si>
     <t xml:space="preserve">MOLINARO,SUDATI,TRECCOZZI,CRESCENZI,MANDOLESI,PALESTINI E.,VALLORANI,MARONI,BIANCHINI,CAGNAZZO,NEGREA,PALESTINI F.,CAMELA,FERIOZZI,CILENTI,MICLAUS,CENSORI,COSSETI,NOVELLI,OP1,OP2,OP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNO 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNO 1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNO 2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECONDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLINARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUDATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRECCOZZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRESCENZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDOLESI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALESTINI E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALLORANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIANCHINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAGNAZZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEGREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALESTINI F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERIOZZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CILENTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICLAUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENSORI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSSETI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVELLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP3</t>
   </si>
 </sst>
 </file>
@@ -51,11 +145,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -72,6 +167,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -87,12 +189,48 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="FF2A6099"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF2A6099"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2A6099"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF2A6099"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -121,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -137,6 +275,26 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -171,7 +329,7 @@
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -218,13 +376,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44361</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,4 +435,497 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <f aca="false">SUM(I2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F2)+ COUNTIF(A:A, F2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F2)+ COUNTIF(B:B, F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <f aca="false">SUM(I3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F3)+ COUNTIF(A:A, F3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F3)+ COUNTIF(B:B, F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">SUM(I4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F4)+ COUNTIF(A:A, F4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F4)+ COUNTIF(B:B, F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <f aca="false">SUM(I5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F5)+ COUNTIF(A:A, F5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F5)+ COUNTIF(B:B, F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <f aca="false">SUM(I6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F6)+ COUNTIF(A:A, F6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F6)+ COUNTIF(B:B, F6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <f aca="false">SUM(I7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F7)+ COUNTIF(A:A, F7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F7)+ COUNTIF(B:B, F7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <f aca="false">SUM(I8:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F8)+ COUNTIF(A:A, F8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F8)+ COUNTIF(B:B, F8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">SUM(I9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F9)+ COUNTIF(A:A, F9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F9)+ COUNTIF(B:B, F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <f aca="false">SUM(I10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F10)+ COUNTIF(A:A, F10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F10)+ COUNTIF(B:B, F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <f aca="false">SUM(I11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F11)+ COUNTIF(A:A, F11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F11)+ COUNTIF(B:B, F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <f aca="false">SUM(I12:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F12)+ COUNTIF(A:A, F12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F12)+ COUNTIF(B:B, F12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <f aca="false">SUM(I13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F13)+ COUNTIF(A:A, F13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F13)+ COUNTIF(B:B, F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <f aca="false">SUM(I14:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F14)+ COUNTIF(A:A, F14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F14)+ COUNTIF(B:B, F14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <f aca="false">SUM(I15:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F15)+ COUNTIF(A:A, F15)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F15)+ COUNTIF(B:B, F15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <f aca="false">SUM(I16:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F16)+ COUNTIF(A:A, F16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F16)+ COUNTIF(B:B, F16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <f aca="false">SUM(I17:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F17)+ COUNTIF(A:A, F17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F17)+ COUNTIF(B:B, F17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <f aca="false">SUM(I18:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F18)+ COUNTIF(A:A, F18)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F18)+ COUNTIF(B:B, F18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <f aca="false">SUM(I19:J19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F19)+ COUNTIF(A:A, F19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F19)+ COUNTIF(B:B, F19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <f aca="false">SUM(I20:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F20)+ COUNTIF(A:A, F20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F20)+ COUNTIF(B:B, F20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <f aca="false">SUM(I21:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F21)+ COUNTIF(A:A, F21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F21)+ COUNTIF(B:B, F21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <f aca="false">SUM(I22:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F22)+ COUNTIF(A:A, F22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F22)+ COUNTIF(B:B, F22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <f aca="false">SUM(I23:J23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <f aca="false">COUNTIF(C:C, F23)+ COUNTIF(A:A, F23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <f aca="false">COUNTIF(D:D, F23)+ COUNTIF(B:B, F23)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>